--- a/CustomerAndAccountsData.xlsx
+++ b/CustomerAndAccountsData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chintan\git\nGage-Banking\Data Files\Execution\Data Creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshah\git\nGage-Banking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CD8D6F-C4AD-4A0E-81D1-9F490A12EC60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D99139-D373-41F4-8622-91F0DF34AF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{47FB0726-0CA2-4609-AFDA-BA55CDCA5A34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
   <si>
     <t>FirstName</t>
   </si>
@@ -318,15 +318,9 @@
     <t>350</t>
   </si>
   <si>
-    <t>Interest Checking</t>
-  </si>
-  <si>
     <t>Business Savings Position</t>
   </si>
   <si>
-    <t>Interest Checking Position</t>
-  </si>
-  <si>
     <t>Terms and conditions</t>
   </si>
   <si>
@@ -385,6 +379,30 @@
   </si>
   <si>
     <t>999100000113</t>
+  </si>
+  <si>
+    <t>Pradip</t>
+  </si>
+  <si>
+    <t>Jadhav</t>
+  </si>
+  <si>
+    <t>911781003</t>
+  </si>
+  <si>
+    <t>+17841253548</t>
+  </si>
+  <si>
+    <t>Pradip.jadhav@example.com</t>
+  </si>
+  <si>
+    <t>MID_200004</t>
+  </si>
+  <si>
+    <t>999100000114</t>
+  </si>
+  <si>
+    <t>Pradip Jadhav</t>
   </si>
 </sst>
 </file>
@@ -755,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529D6B6E-4BCD-4333-A359-403F1D816D87}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,23 +1090,92 @@
         <v>37</v>
       </c>
     </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1">
+        <v>12008</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{197C1862-2657-4B51-A0AD-493D5B1AB961}"/>
     <hyperlink ref="R3" r:id="rId2" xr:uid="{C358DE7B-ECA7-4BBA-B620-2BC7A25D4B60}"/>
     <hyperlink ref="R4" r:id="rId3" xr:uid="{3B7CE07F-5E5A-47F5-B460-44A0988A77A8}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{62142599-8B21-4643-B883-A00C06ACE411}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4410CAEF-738B-46B0-A005-2E917B7DBEFB}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1231,7 @@
         <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>70</v>
@@ -1165,10 +1252,10 @@
         <v>75</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>76</v>
@@ -1213,10 +1300,10 @@
         <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>89</v>
@@ -1228,7 +1315,7 @@
         <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1236,7 +1323,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>84</v>
@@ -1268,7 +1355,7 @@
         <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>88</v>
@@ -1280,10 +1367,10 @@
         <v>90</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>92</v>
@@ -1297,7 +1384,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>84</v>
@@ -1307,14 +1394,14 @@
         <v>93</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1335,13 +1422,13 @@
         <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1350,10 +1437,10 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
@@ -1376,13 +1463,13 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -1392,28 +1479,28 @@
         <v>90</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>93</v>
@@ -1422,6 +1509,60 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
